--- a/xlsx/冰淇淋_intext.xlsx
+++ b/xlsx/冰淇淋_intext.xlsx
@@ -29,13 +29,13 @@
     <t>en-Ice cream</t>
   </si>
   <si>
-    <t>政策_政策_美國_冰淇淋</t>
+    <t>政策_政策_美国_冰淇淋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AE%AE%E5%A5%B6%E6%B2%B9</t>
   </si>
   <si>
-    <t>鮮奶油</t>
+    <t>鲜奶油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%A5%B6</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%BC%8F%E5%86%B0%E6%B7%87%E6%B7%8B</t>
   </si>
   <si>
-    <t>義式冰淇淋</t>
+    <t>义式冰淇淋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E5%AF%B6</t>
   </si>
   <si>
-    <t>雪寶</t>
+    <t>雪宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%86%BB</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B6%E9%BB%83</t>
   </si>
   <si>
-    <t>奶黃</t>
+    <t>奶黄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9C%E5%93%81</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E8%A3%BD%E5%93%81</t>
   </si>
   <si>
-    <t>乳製品</t>
+    <t>乳制品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%9E%9C</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%8A%E8%90%AC%E9%87%8C_(%E5%8D%97%E5%AE%8B)</t>
   </si>
   <si>
-    <t>楊萬里 (南宋)</t>
+    <t>杨万里 (南宋)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%8F%AF%C2%B7%E6%B3%A2%E7%BD%97</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E7%91%9F%E7%90%B3%C2%B7%E5%BE%B7%C2%B7%E7%BE%8E%E7%AC%AC%E5%A5%87</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%89%E4%B9%B3</t>
   </si>
   <si>
-    <t>煉乳</t>
+    <t>炼乳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B6%E7%B2%89</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%8E%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>香莢蘭</t>
+    <t>香荚兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A7%E5%85%8B%E5%8A%9B</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%91%E9%A4%85</t>
   </si>
   <si>
-    <t>薑餅</t>
+    <t>薑饼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%94%9F</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%96%B0%E8%81%9E%E7%B6%B2</t>
   </si>
   <si>
-    <t>聯合新聞網</t>
+    <t>联合新闻网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BB%A3</t>
   </si>
   <si>
-    <t>聖代</t>
+    <t>圣代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%86%B0%E6%B7%87%E6%B7%8B</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E9%BA%B5%E5%86%B0%E6%B7%87%E6%B7%8B</t>
   </si>
   <si>
-    <t>義大利麵冰淇淋</t>
+    <t>义大利面冰淇淋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%B9%E8%8E%93%E6%BC%A9%E6%B8%A6%E5%86%B0%E6%B7%87%E6%B7%8B</t>
   </si>
   <si>
-    <t>樹莓漩渦冰淇淋</t>
+    <t>树莓漩涡冰淇淋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF%E5%86%B0%E6%B7%87%E6%B7%8B</t>
@@ -413,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E6%B7%87%E6%B7%8B%E6%9C%88</t>
   </si>
   <si>
-    <t>國家冰淇淋月</t>
+    <t>国家冰淇淋月</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
